--- a/reports/gridsearch_IPS/results.xlsx
+++ b/reports/gridsearch_IPS/results.xlsx
@@ -1,38 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,18 +45,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -130,7 +211,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -165,7 +245,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -341,13 +420,395 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>DT_BrdSMOTE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>DT_GAN</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>DT_SMOTE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>LR</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>LR_BrdSMOTE</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>LR_GAN</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>LR_SMOTE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>RF_BrdSMOTE</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>RF_GAN</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>RF_SMOTE</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>XGB</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_BrdSMOTE</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_GAN</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RF</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RF_BrdSMOTE</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RF_GAN</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RF_SMOTE</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9996920708237106</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.983291976840364</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9978494623655914</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9994210090984283</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9993839044138493</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.9989247311827956</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9990074441687344</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9995864350703061</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.9998460354118552</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.9890818858560795</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.9958643507030605</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.9999172870140611</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.9992298212089187</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.9879239040529363</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.986021505376344</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.9987678088276987</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.9847808105872623</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.9856906534325889</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.9997518610421837</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.9999172870140611</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>f1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9998347107438017</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9844600165344239</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9978612698367986</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9994211115927648</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9996693531580224</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9989232578784595</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9990077854773937</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9995865375363486</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9999173212071103</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.9896062609341909</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.995941561546507</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.9999173212071104</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.9995866743651328</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.9885570290375704</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.9869137407611411</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.9993381591988241</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.985734619276197</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.986603752980393</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.9997517583781548</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.9999172527927183</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9998347107438017</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9725321888412017</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9969055374592835</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9996691478298944</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9993391159549857</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9990090820496441</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.999504405211184</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.9998347107438017</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.9807939573259727</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.99236276849642</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.9998347107438017</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.9991738266987873</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.9792284866468843</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.9757267441860465</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.9995037218580167</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.9750543872371283</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.9755991285403051</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9985111662531017</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9991728701406121</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9995037220843672</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.9978494623655914</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9990074441687344</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9996691480562448</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.9998345740281224</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.9991728701406121</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.9996691480562448</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.9993382961124897</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.9986765922249793</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.9995037220843672</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.9998345740281224</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.9998345740281224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>